--- a/Code Review Report Sample - UserDAO.xlsx
+++ b/Code Review Report Sample - UserDAO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HoangNguyen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6.Study\Software_testing\software_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE5C791-1913-4902-8390-0224AC3C3CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437146C4-D4D6-49B7-A4E5-87C5EC26F2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="6870" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="3015" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="311">
   <si>
     <t>Ho Chi Minh City University of Technology - VNUHCM</t>
   </si>
@@ -1124,13 +1124,1006 @@
   </si>
   <si>
     <t>Try javadoc</t>
+  </si>
+  <si>
+    <t>rs=stmt.executeQuery(query);</t>
+  </si>
+  <si>
+    <t>replace `rs` by result</t>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>printStackTrace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>missing exception message50</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pstmt = (PreparedStatement) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>con</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prepareStatement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(query);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>query1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"SELECT * FROM users"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> rs=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>executeQuery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(query1);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>username=password=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"user"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>1 ?</t>
+  </si>
+  <si>
+    <r>
+      <t>query2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"SELECT * FROM users ORDER by id DESC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> rs=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>executeQuery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(query2);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FileInputStream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FileInputStream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(file);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pstmt=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>con</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prepareStatement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(query);</t>
+    </r>
+  </si>
+  <si>
+    <t>131-132</t>
+  </si>
+  <si>
+    <r>
+      <t>catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SQLException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pstmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>setString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,value);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ResultSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getQueryResult1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rs = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>executeQuery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(query);</t>
+    </r>
+  </si>
+  <si>
+    <t>147-152</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> rs = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>executeQuery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(query);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Exception</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>187 - 189</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <t>195-197</t>
+  </si>
+  <si>
+    <r>
+      <t>Vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <t>203-209</t>
+  </si>
+  <si>
+    <t>git a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1166,6 +2159,48 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1203,7 +2238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -1223,6 +2258,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1542,8 +2589,8 @@
   </sheetPr>
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2293,7 +3340,7 @@
   <dimension ref="A1:Z262"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10493,15 +11540,15 @@
   </sheetPr>
   <dimension ref="A1:Z262"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="268" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.42578125" customWidth="1"/>
     <col min="5" max="5" width="76.85546875" customWidth="1"/>
   </cols>
@@ -10771,14 +11818,22 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7">
+        <v>6</v>
+      </c>
       <c r="B18" s="7" t="str">
         <f>IFERROR(VLOOKUP(A18,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+        <v xml:space="preserve"> Are descriptive variable and constant names used in accord with naming conventions?</v>
+      </c>
+      <c r="C18" s="7">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -10802,14 +11857,22 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7">
+        <v>50</v>
+      </c>
       <c r="B19" s="7" t="str">
         <f>IFERROR(VLOOKUP(A19,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+        <v xml:space="preserve"> Do the comments help in understanding the code?</v>
+      </c>
+      <c r="C19" s="7">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -10833,13 +11896,19 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7">
+        <v>6</v>
+      </c>
       <c r="B20" s="7" t="str">
         <f>IFERROR(VLOOKUP(A20,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+        <v xml:space="preserve"> Are descriptive variable and constant names used in accord with naming conventions?</v>
+      </c>
+      <c r="C20" s="7">
+        <v>42</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>288</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -10864,13 +11933,19 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7">
+        <v>6</v>
+      </c>
       <c r="B21" s="7" t="str">
         <f>IFERROR(VLOOKUP(A21,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+        <v xml:space="preserve"> Are descriptive variable and constant names used in accord with naming conventions?</v>
+      </c>
+      <c r="C21" s="7">
+        <v>46</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>289</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -10895,14 +11970,22 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7">
+        <v>46</v>
+      </c>
       <c r="B22" s="7" t="str">
         <f>IFERROR(VLOOKUP(A22,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+        <v xml:space="preserve"> Does every attribute,variable or constant declaration have a comment?</v>
+      </c>
+      <c r="C22" s="7">
+        <v>48</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -10926,13 +12009,19 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7">
+        <v>6</v>
+      </c>
       <c r="B23" s="7" t="str">
         <f>IFERROR(VLOOKUP(A23,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+        <v xml:space="preserve"> Are descriptive variable and constant names used in accord with naming conventions?</v>
+      </c>
+      <c r="C23" s="7">
+        <v>51</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>292</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -10957,13 +12046,19 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="7"/>
+      <c r="A24" s="7">
+        <v>6</v>
+      </c>
       <c r="B24" s="7" t="str">
         <f>IFERROR(VLOOKUP(A24,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+        <v xml:space="preserve"> Are descriptive variable and constant names used in accord with naming conventions?</v>
+      </c>
+      <c r="C24" s="7">
+        <v>52</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>293</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -10988,13 +12083,19 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="7"/>
+      <c r="A25" s="7">
+        <v>7</v>
+      </c>
       <c r="B25" s="7" t="str">
         <f>IFERROR(VLOOKUP(A25,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+        <v xml:space="preserve"> Is every variable correctly typed?</v>
+      </c>
+      <c r="C25" s="7">
+        <v>85</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>287</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -11019,13 +12120,19 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7">
+        <v>7</v>
+      </c>
       <c r="B26" s="7" t="str">
         <f>IFERROR(VLOOKUP(A26,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+        <v xml:space="preserve"> Is every variable correctly typed?</v>
+      </c>
+      <c r="C26" s="7">
+        <v>105</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>294</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -11050,13 +12157,19 @@
       <c r="Z26" s="8"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="7"/>
+      <c r="A27" s="7">
+        <v>6</v>
+      </c>
       <c r="B27" s="7" t="str">
         <f>IFERROR(VLOOKUP(A27,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+        <v xml:space="preserve"> Are descriptive variable and constant names used in accord with naming conventions?</v>
+      </c>
+      <c r="C27" s="7">
+        <v>127</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>295</v>
+      </c>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -11081,13 +12194,19 @@
       <c r="Z27" s="8"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="7"/>
+      <c r="A28" s="7">
+        <v>37</v>
+      </c>
       <c r="B28" s="7" t="str">
         <f>IFERROR(VLOOKUP(A28,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+        <v xml:space="preserve"> Are all exceptions handled appropriately?</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>297</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -11112,14 +12231,22 @@
       <c r="Z28" s="8"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="7"/>
+      <c r="A29" s="7">
+        <v>46</v>
+      </c>
       <c r="B29" s="7" t="str">
         <f>IFERROR(VLOOKUP(A29,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+        <v xml:space="preserve"> Does every attribute,variable or constant declaration have a comment?</v>
+      </c>
+      <c r="C29" s="7">
+        <v>128</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -11143,13 +12270,19 @@
       <c r="Z29" s="8"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="7"/>
+      <c r="A30" s="7">
+        <v>6</v>
+      </c>
       <c r="B30" s="7" t="str">
         <f>IFERROR(VLOOKUP(A30,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+        <v xml:space="preserve"> Are descriptive variable and constant names used in accord with naming conventions?</v>
+      </c>
+      <c r="C30" s="7">
+        <v>136</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>299</v>
+      </c>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -11174,13 +12307,19 @@
       <c r="Z30" s="8"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="7"/>
+      <c r="A31" s="7">
+        <v>6</v>
+      </c>
       <c r="B31" s="7" t="str">
         <f>IFERROR(VLOOKUP(A31,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+        <v xml:space="preserve"> Are descriptive variable and constant names used in accord with naming conventions?</v>
+      </c>
+      <c r="C31" s="7">
+        <v>149</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>300</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -11205,12 +12344,16 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="7"/>
+      <c r="A32" s="7">
+        <v>37</v>
+      </c>
       <c r="B32" s="7" t="str">
         <f>IFERROR(VLOOKUP(A32,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C32" s="7"/>
+        <v xml:space="preserve"> Are all exceptions handled appropriately?</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
@@ -11236,13 +12379,19 @@
       <c r="Z32" s="8"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="7"/>
+      <c r="A33" s="7">
+        <v>6</v>
+      </c>
       <c r="B33" s="7" t="str">
         <f>IFERROR(VLOOKUP(A33,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+        <v xml:space="preserve"> Are descriptive variable and constant names used in accord with naming conventions?</v>
+      </c>
+      <c r="C33" s="7">
+        <v>159</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>302</v>
+      </c>
       <c r="E33" s="7"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -11267,13 +12416,19 @@
       <c r="Z33" s="8"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7">
+        <v>6</v>
+      </c>
       <c r="B34" s="7" t="str">
         <f>IFERROR(VLOOKUP(A34,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+        <v xml:space="preserve"> Are descriptive variable and constant names used in accord with naming conventions?</v>
+      </c>
+      <c r="C34" s="7">
+        <v>169</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>295</v>
+      </c>
       <c r="E34" s="7"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -11298,13 +12453,19 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="7"/>
+      <c r="A35" s="7">
+        <v>37</v>
+      </c>
       <c r="B35" s="7" t="str">
         <f>IFERROR(VLOOKUP(A35,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+        <v xml:space="preserve"> Are all exceptions handled appropriately?</v>
+      </c>
+      <c r="C35" s="7">
+        <v>175</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>303</v>
+      </c>
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -11329,13 +12490,19 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="7"/>
+      <c r="A36" s="7">
+        <v>6</v>
+      </c>
       <c r="B36" s="7" t="str">
         <f>IFERROR(VLOOKUP(A36,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+        <v xml:space="preserve"> Are descriptive variable and constant names used in accord with naming conventions?</v>
+      </c>
+      <c r="C36" s="7">
+        <v>185</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>304</v>
+      </c>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -11360,12 +12527,16 @@
       <c r="Z36" s="8"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="7"/>
+      <c r="A37" s="7">
+        <v>9</v>
+      </c>
       <c r="B37" s="7" t="str">
         <f>IFERROR(VLOOKUP(A37,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C37" s="7"/>
+        <v xml:space="preserve"> Are all for-loop control variables declared in the loop header?</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
@@ -11391,13 +12562,17 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="7"/>
+      <c r="A38" s="7">
+        <v>8</v>
+      </c>
       <c r="B38" s="7" t="str">
         <f>IFERROR(VLOOKUP(A38,'Check list'!A:B,2,0),"")</f>
-        <v/>
+        <v xml:space="preserve"> Is every variable properly initialized?</v>
       </c>
       <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="D38" s="12" t="s">
+        <v>306</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -11422,12 +12597,16 @@
       <c r="Z38" s="8"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="7"/>
+      <c r="A39" s="7">
+        <v>9</v>
+      </c>
       <c r="B39" s="7" t="str">
         <f>IFERROR(VLOOKUP(A39,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C39" s="7"/>
+        <v xml:space="preserve"> Are all for-loop control variables declared in the loop header?</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
@@ -11453,13 +12632,19 @@
       <c r="Z39" s="8"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="7"/>
+      <c r="A40" s="7">
+        <v>8</v>
+      </c>
       <c r="B40" s="7" t="str">
         <f>IFERROR(VLOOKUP(A40,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+        <v xml:space="preserve"> Is every variable properly initialized?</v>
+      </c>
+      <c r="C40" s="7">
+        <v>193</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>308</v>
+      </c>
       <c r="E40" s="7"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -11484,12 +12669,16 @@
       <c r="Z40" s="8"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="7"/>
+      <c r="A41" s="7">
+        <v>37</v>
+      </c>
       <c r="B41" s="7" t="str">
         <f>IFERROR(VLOOKUP(A41,'Check list'!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C41" s="7"/>
+        <v xml:space="preserve"> Are all exceptions handled appropriately?</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="8"/>
@@ -11515,7 +12704,9 @@
       <c r="Z41" s="8"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="7"/>
+      <c r="A42" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="B42" s="7" t="str">
         <f>IFERROR(VLOOKUP(A42,'Check list'!A:B,2,0),"")</f>
         <v/>
